--- a/medicine/Handicap/Le_Goût_des_merveilles/Le_Goût_des_merveilles.xlsx
+++ b/medicine/Handicap/Le_Goût_des_merveilles/Le_Goût_des_merveilles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Go%C3%BBt_des_merveilles</t>
+          <t>Le_Goût_des_merveilles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Goût des merveilles est une comédie romantique française réalisée par Éric Besnard et sortie en 2015.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Go%C3%BBt_des_merveilles</t>
+          <t>Le_Goût_des_merveilles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Louise, jeune veuve arboricultrice de la Drôme en difficultés financières, heurte dans un accident de voiture un homme qui marche sur un chemin de terre. 
 Étrange personnage filiforme du nom de Pierre, dégingandé et rigide dans son immuable costume, au franc-parler et au débit vocal rapide et mécanique, il refuse d'être soigné et ne supporte pas qu'on le touche. 
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Go%C3%BBt_des_merveilles</t>
+          <t>Le_Goût_des_merveilles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Le Goût des merveilles
 Réalisation : Éric Besnard
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Go%C3%BBt_des_merveilles</t>
+          <t>Le_Goût_des_merveilles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +609,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Virginie Efira : Louise Legrand, l'arboricultrice
 Benjamin Lavernhe : Pierre, l'autiste
@@ -619,7 +637,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Le_Go%C3%BBt_des_merveilles</t>
+          <t>Le_Goût_des_merveilles</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,9 +655,11 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le film est issu d'un long travail de documentation sur l'autisme de la part d'Eric Besnard, le réalisateur, et s'inspire entre autres des livres de Daniel Tammet et de Josef Schovanec[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le film est issu d'un long travail de documentation sur l'autisme de la part d'Eric Besnard, le réalisateur, et s'inspire entre autres des livres de Daniel Tammet et de Josef Schovanec.
 La sortie du film coïncide avec la sortie du livre sur le même sujet De l'amour en Autistan, de Josef Schovanec.  (ISBN 2259229476).
 Le titre du film fait référence aux merveilles, des beignets du sud-ouest de la France consommés principalement durant les carnavals ou le mardi gras. Le film fait de nombreux plans sur la cuisine de Louise et les plats sucrés.
 le film est tourné dans la Drôme provençale notamment à Nyons</t>
